--- a/data_latih.xlsx
+++ b/data_latih.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_fahri\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4DE087-407C-4D2B-AAB7-3CDFD6F87472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1759,8 +1765,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1823,13 +1829,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1867,7 +1881,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1901,6 +1915,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1935,9 +1950,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2110,14 +2126,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2184,7 +2214,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2216,7 +2246,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2251,7 +2281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2313,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2348,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2383,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2388,7 +2418,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2423,7 +2453,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2488,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2493,7 +2523,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2558,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2593,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2628,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2630,7 +2660,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2662,7 +2692,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2694,7 +2724,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2729,7 +2759,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2761,7 +2791,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2826,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2828,7 +2858,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2860,7 +2890,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2895,7 +2925,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2930,7 +2960,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2965,7 +2995,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2997,7 +3027,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3029,7 +3059,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3064,7 +3094,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3099,7 +3129,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3161,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3166,7 +3196,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3198,7 +3228,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3233,7 +3263,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3268,7 +3298,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -3300,7 +3330,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3332,7 +3362,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3367,7 +3397,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3399,7 +3429,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3431,7 +3461,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3466,7 +3496,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3501,7 +3531,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3536,7 +3566,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3571,7 +3601,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3603,7 +3633,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3638,7 +3668,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3673,7 +3703,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3705,7 +3735,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3737,7 +3767,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -3769,7 +3799,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3801,7 +3831,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3833,7 +3863,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +3898,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3900,7 +3930,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3932,7 +3962,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3964,7 +3994,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3996,7 +4026,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -4028,7 +4058,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -4063,7 +4093,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -4095,7 +4125,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -4127,7 +4157,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -4159,7 +4189,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4191,7 +4221,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4226,7 +4256,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4258,7 +4288,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4290,7 +4320,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4322,7 +4352,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4354,7 +4384,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4389,7 +4419,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4421,7 +4451,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -4456,7 +4486,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4488,7 +4518,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -4523,7 +4553,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -4558,7 +4588,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -4590,7 +4620,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -4622,7 +4652,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4654,7 +4684,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -4689,7 +4719,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -4724,7 +4754,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4759,7 +4789,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4794,7 +4824,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4829,7 +4859,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4861,7 +4891,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4896,7 +4926,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4931,7 +4961,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4966,7 +4996,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4998,7 +5028,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5030,7 +5060,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5062,7 +5092,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5097,7 +5127,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5132,7 +5162,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5164,7 +5194,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5196,7 +5226,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5228,7 +5258,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5260,7 +5290,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5322,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -5327,7 +5357,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -5362,7 +5392,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -5397,7 +5427,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -5429,7 +5459,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -5464,7 +5494,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -5496,7 +5526,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -5531,7 +5561,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -5563,7 +5593,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -5595,7 +5625,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -5630,7 +5660,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -5662,7 +5692,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -5694,7 +5724,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -5729,7 +5759,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5761,7 +5791,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -5793,7 +5823,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -5825,7 +5855,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5857,7 +5887,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -5892,7 +5922,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -5924,7 +5954,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -5959,7 +5989,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -5991,7 +6021,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -6026,7 +6056,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -6061,7 +6091,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -6093,7 +6123,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -6125,7 +6155,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -6160,7 +6190,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -6195,7 +6225,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -6230,7 +6260,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -6262,7 +6292,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -6297,7 +6327,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -6329,7 +6359,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -6364,7 +6394,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -6396,7 +6426,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -6428,7 +6458,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -6460,7 +6490,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -6495,7 +6525,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -6527,7 +6557,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -6559,7 +6589,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -6591,7 +6621,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -6623,7 +6653,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -6655,7 +6685,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -6687,7 +6717,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -6719,7 +6749,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -6751,7 +6781,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -6783,7 +6813,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -6815,7 +6845,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -6847,7 +6877,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -6882,7 +6912,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -6914,7 +6944,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -6946,7 +6976,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -6981,7 +7011,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -7016,7 +7046,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -7051,7 +7081,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -7083,7 +7113,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -7118,7 +7148,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -7150,7 +7180,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -7185,7 +7215,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -7217,7 +7247,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -7249,7 +7279,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -7284,7 +7314,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -7316,7 +7346,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -7351,7 +7381,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -7383,7 +7413,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -7418,7 +7448,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -7453,7 +7483,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -7485,7 +7515,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -7520,7 +7550,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -7555,7 +7585,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -7590,7 +7620,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -7622,7 +7652,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -7654,7 +7684,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -7689,7 +7719,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -7721,7 +7751,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -7756,7 +7786,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -7791,7 +7821,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -7826,7 +7856,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -7858,7 +7888,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -7893,7 +7923,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -7925,7 +7955,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -7960,7 +7990,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -7995,7 +8025,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -8027,7 +8057,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -8059,7 +8089,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>173</v>
       </c>
@@ -8091,7 +8121,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>174</v>
       </c>
@@ -8126,7 +8156,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>175</v>
       </c>
@@ -8158,7 +8188,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>176</v>
       </c>
@@ -8190,7 +8220,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>177</v>
       </c>
@@ -8225,7 +8255,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>177</v>
       </c>
@@ -8257,7 +8287,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -8292,7 +8322,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>178</v>
       </c>
@@ -8324,7 +8354,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>178</v>
       </c>
@@ -8359,7 +8389,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>179</v>
       </c>
@@ -8394,7 +8424,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>180</v>
       </c>
@@ -8426,7 +8456,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>181</v>
       </c>
@@ -8458,7 +8488,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>182</v>
       </c>
@@ -8490,7 +8520,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>183</v>
       </c>
@@ -8522,7 +8552,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -8557,7 +8587,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -8592,7 +8622,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -8627,7 +8657,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -8662,7 +8692,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -8694,7 +8724,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>186</v>
       </c>
@@ -8726,7 +8756,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>187</v>
       </c>
@@ -8761,7 +8791,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>188</v>
       </c>
@@ -8796,7 +8826,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>189</v>
       </c>
@@ -8828,7 +8858,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -8860,7 +8890,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>191</v>
       </c>
@@ -8895,7 +8925,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>192</v>
       </c>
@@ -8927,7 +8957,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>192</v>
       </c>
@@ -8962,7 +8992,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>192</v>
       </c>
@@ -8994,7 +9024,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>193</v>
       </c>
@@ -9026,7 +9056,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>194</v>
       </c>
@@ -9061,7 +9091,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>195</v>
       </c>
@@ -9093,7 +9123,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>195</v>
       </c>
@@ -9128,7 +9158,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>195</v>
       </c>
@@ -9160,7 +9190,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>196</v>
       </c>
@@ -9192,7 +9222,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>197</v>
       </c>
@@ -9227,7 +9257,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>198</v>
       </c>
@@ -9259,7 +9289,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>199</v>
       </c>
@@ -9291,7 +9321,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>200</v>
       </c>
@@ -9323,7 +9353,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>201</v>
       </c>
@@ -9358,7 +9388,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>202</v>
       </c>
@@ -9390,7 +9420,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>203</v>
       </c>
@@ -9425,7 +9455,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>204</v>
       </c>
@@ -9457,7 +9487,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>205</v>
       </c>
@@ -9489,7 +9519,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>206</v>
       </c>
@@ -9521,7 +9551,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>207</v>
       </c>
@@ -9556,7 +9586,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>208</v>
       </c>
@@ -9588,7 +9618,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>209</v>
       </c>
@@ -9623,7 +9653,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>210</v>
       </c>
@@ -9655,7 +9685,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>211</v>
       </c>
@@ -9687,7 +9717,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>212</v>
       </c>
@@ -9719,7 +9749,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>212</v>
       </c>
@@ -9751,7 +9781,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>213</v>
       </c>
@@ -9786,7 +9816,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>214</v>
       </c>
@@ -9818,7 +9848,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>215</v>
       </c>
@@ -9853,7 +9883,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>216</v>
       </c>
@@ -9888,7 +9918,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>217</v>
       </c>
@@ -9923,7 +9953,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>218</v>
       </c>
@@ -9955,7 +9985,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>218</v>
       </c>
@@ -9987,7 +10017,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>219</v>
       </c>
@@ -10019,7 +10049,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>220</v>
       </c>
@@ -10054,7 +10084,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>221</v>
       </c>
@@ -10089,7 +10119,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>222</v>
       </c>
@@ -10121,7 +10151,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>223</v>
       </c>
@@ -10153,7 +10183,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>224</v>
       </c>
@@ -10188,7 +10218,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>224</v>
       </c>
@@ -10220,7 +10250,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>224</v>
       </c>
@@ -10255,7 +10285,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>224</v>
       </c>
@@ -10290,7 +10320,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>225</v>
       </c>
@@ -10322,7 +10352,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>226</v>
       </c>
@@ -10354,7 +10384,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>226</v>
       </c>
@@ -10386,7 +10416,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>227</v>
       </c>
@@ -10421,7 +10451,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>228</v>
       </c>
@@ -10453,7 +10483,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -10485,7 +10515,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>228</v>
       </c>
@@ -10517,7 +10547,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>229</v>
       </c>
@@ -10549,7 +10579,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>230</v>
       </c>
@@ -10584,7 +10614,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>231</v>
       </c>
@@ -10616,7 +10646,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>232</v>
       </c>
@@ -10648,7 +10678,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>233</v>
       </c>
@@ -10680,7 +10710,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>234</v>
       </c>
@@ -10715,7 +10745,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>235</v>
       </c>
@@ -10747,7 +10777,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>236</v>
       </c>
@@ -10779,7 +10809,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>237</v>
       </c>
@@ -10814,7 +10844,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>238</v>
       </c>
@@ -10846,7 +10876,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -10878,7 +10908,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>240</v>
       </c>
@@ -10913,7 +10943,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>241</v>
       </c>
@@ -10945,7 +10975,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>242</v>
       </c>
@@ -10980,7 +11010,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>243</v>
       </c>
@@ -11012,7 +11042,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>244</v>
       </c>
@@ -11044,7 +11074,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>245</v>
       </c>
@@ -11079,7 +11109,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>246</v>
       </c>
@@ -11111,7 +11141,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>247</v>
       </c>
@@ -11143,7 +11173,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>248</v>
       </c>
@@ -11178,7 +11208,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>249</v>
       </c>
@@ -11210,7 +11240,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>250</v>
       </c>
@@ -11245,7 +11275,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>251</v>
       </c>
@@ -11277,7 +11307,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>252</v>
       </c>
@@ -11309,7 +11339,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>253</v>
       </c>
@@ -11344,7 +11374,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>254</v>
       </c>
@@ -11376,7 +11406,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>255</v>
       </c>
@@ -11408,7 +11438,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>256</v>
       </c>
@@ -11443,7 +11473,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>257</v>
       </c>
@@ -11475,7 +11505,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>258</v>
       </c>
@@ -11510,7 +11540,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>259</v>
       </c>
@@ -11542,7 +11572,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>260</v>
       </c>
@@ -11574,7 +11604,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>261</v>
       </c>
@@ -11609,7 +11639,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>262</v>
       </c>
@@ -11641,7 +11671,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>263</v>
       </c>
@@ -11676,7 +11706,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>264</v>
       </c>
@@ -11708,7 +11738,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>265</v>
       </c>
@@ -11740,7 +11770,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>266</v>
       </c>
@@ -11772,7 +11802,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>267</v>
       </c>
@@ -11807,7 +11837,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>268</v>
       </c>
@@ -11839,7 +11869,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>269</v>
       </c>
@@ -11874,7 +11904,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>270</v>
       </c>
@@ -11909,7 +11939,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>271</v>
       </c>
@@ -11944,7 +11974,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>272</v>
       </c>
@@ -11979,7 +12009,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>273</v>
       </c>
@@ -12014,7 +12044,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>274</v>
       </c>
@@ -12046,7 +12076,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>275</v>
       </c>
@@ -12081,7 +12111,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>276</v>
       </c>
@@ -12116,7 +12146,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>277</v>
       </c>
@@ -12148,7 +12178,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>278</v>
       </c>
@@ -12183,7 +12213,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>279</v>
       </c>
@@ -12215,7 +12245,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>280</v>
       </c>
@@ -12247,7 +12277,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>281</v>
       </c>
@@ -12279,7 +12309,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>281</v>
       </c>
@@ -12314,7 +12344,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>281</v>
       </c>
@@ -12346,7 +12376,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>282</v>
       </c>
@@ -12378,7 +12408,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>283</v>
       </c>
@@ -12413,7 +12443,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>284</v>
       </c>
@@ -12448,7 +12478,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>285</v>
       </c>
@@ -12483,7 +12513,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>286</v>
       </c>
@@ -12518,7 +12548,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>287</v>
       </c>
@@ -12550,7 +12580,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>288</v>
       </c>
@@ -12585,7 +12615,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>288</v>
       </c>
@@ -12620,7 +12650,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>288</v>
       </c>
@@ -12652,7 +12682,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>288</v>
       </c>
@@ -12684,7 +12714,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>289</v>
       </c>
@@ -12719,7 +12749,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>290</v>
       </c>
@@ -12754,7 +12784,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>291</v>
       </c>
@@ -12786,7 +12816,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>291</v>
       </c>
@@ -12818,7 +12848,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>292</v>
       </c>
@@ -12850,7 +12880,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>293</v>
       </c>
@@ -12885,7 +12915,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>293</v>
       </c>
@@ -12917,7 +12947,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>294</v>
       </c>
@@ -12949,7 +12979,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>295</v>
       </c>
@@ -12984,7 +13014,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>295</v>
       </c>
@@ -13016,7 +13046,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>295</v>
       </c>
@@ -13051,7 +13081,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>296</v>
       </c>
@@ -13083,7 +13113,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>297</v>
       </c>
@@ -13115,7 +13145,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>298</v>
       </c>
@@ -13147,7 +13177,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>299</v>
       </c>
@@ -13182,7 +13212,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>300</v>
       </c>
@@ -13214,7 +13244,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>301</v>
       </c>
@@ -13246,7 +13276,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>302</v>
       </c>
@@ -13278,7 +13308,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>303</v>
       </c>
@@ -13310,7 +13340,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>304</v>
       </c>
@@ -13342,7 +13372,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>305</v>
       </c>
@@ -13377,7 +13407,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>306</v>
       </c>
@@ -13409,7 +13439,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>307</v>
       </c>
@@ -13441,7 +13471,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>308</v>
       </c>
@@ -13473,7 +13503,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>309</v>
       </c>
@@ -13505,7 +13535,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>310</v>
       </c>
@@ -13537,7 +13567,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>311</v>
       </c>
@@ -13569,7 +13599,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>312</v>
       </c>
@@ -13604,7 +13634,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>313</v>
       </c>
@@ -13636,7 +13666,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>313</v>
       </c>
@@ -13668,7 +13698,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>314</v>
       </c>
@@ -13700,7 +13730,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>315</v>
       </c>
@@ -13732,7 +13762,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>316</v>
       </c>
@@ -13767,7 +13797,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>317</v>
       </c>
@@ -13799,7 +13829,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>317</v>
       </c>
@@ -13834,7 +13864,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>318</v>
       </c>
@@ -13866,7 +13896,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>319</v>
       </c>
@@ -13898,7 +13928,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>320</v>
       </c>
@@ -13930,7 +13960,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>321</v>
       </c>
@@ -13962,7 +13992,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>322</v>
       </c>
@@ -13997,7 +14027,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>323</v>
       </c>
@@ -14032,7 +14062,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>324</v>
       </c>
@@ -14064,7 +14094,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>324</v>
       </c>
@@ -14096,7 +14126,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>325</v>
       </c>
@@ -14128,7 +14158,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>326</v>
       </c>
@@ -14163,7 +14193,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>327</v>
       </c>
@@ -14198,7 +14228,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>328</v>
       </c>
@@ -14230,7 +14260,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>329</v>
       </c>
@@ -14265,7 +14295,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>330</v>
       </c>
@@ -14300,7 +14330,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>331</v>
       </c>
@@ -14332,7 +14362,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>332</v>
       </c>
@@ -14367,7 +14397,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>333</v>
       </c>
@@ -14399,7 +14429,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>334</v>
       </c>
@@ -14434,7 +14464,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>335</v>
       </c>
@@ -14469,7 +14499,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>336</v>
       </c>
@@ -14501,7 +14531,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>337</v>
       </c>
@@ -14536,7 +14566,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>338</v>
       </c>
@@ -14571,7 +14601,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>339</v>
       </c>
@@ -14606,7 +14636,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>340</v>
       </c>
@@ -14641,7 +14671,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>341</v>
       </c>
@@ -14673,7 +14703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>342</v>
       </c>
@@ -14708,7 +14738,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>343</v>
       </c>
@@ -14743,7 +14773,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>344</v>
       </c>
@@ -14775,7 +14805,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>345</v>
       </c>
@@ -14807,7 +14837,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>346</v>
       </c>
@@ -14839,7 +14869,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>347</v>
       </c>
@@ -14871,7 +14901,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>348</v>
       </c>
@@ -14906,7 +14936,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>349</v>
       </c>
@@ -14941,7 +14971,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>350</v>
       </c>
@@ -14976,7 +15006,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>351</v>
       </c>
@@ -15008,7 +15038,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>352</v>
       </c>
@@ -15043,7 +15073,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>353</v>
       </c>
@@ -15075,7 +15105,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>354</v>
       </c>
@@ -15107,7 +15137,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>355</v>
       </c>
@@ -15139,7 +15169,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>356</v>
       </c>
@@ -15171,7 +15201,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>357</v>
       </c>
@@ -15203,7 +15233,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>358</v>
       </c>
@@ -15235,7 +15265,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>359</v>
       </c>
@@ -15267,7 +15297,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>360</v>
       </c>
@@ -15302,7 +15332,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>361</v>
       </c>
@@ -15337,7 +15367,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>362</v>
       </c>
@@ -15372,7 +15402,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>363</v>
       </c>
@@ -15407,7 +15437,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>364</v>
       </c>
@@ -15442,7 +15472,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>365</v>
       </c>
@@ -15474,7 +15504,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>366</v>
       </c>
@@ -15506,7 +15536,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>367</v>
       </c>
@@ -15541,7 +15571,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>368</v>
       </c>
@@ -15573,7 +15603,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>369</v>
       </c>
@@ -15608,7 +15638,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>370</v>
       </c>
@@ -15643,7 +15673,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>371</v>
       </c>
@@ -15678,7 +15708,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>372</v>
       </c>
@@ -15713,7 +15743,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>373</v>
       </c>
@@ -15748,7 +15778,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>374</v>
       </c>
@@ -15780,7 +15810,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>375</v>
       </c>
@@ -15815,7 +15845,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>376</v>
       </c>
@@ -15850,7 +15880,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>377</v>
       </c>
@@ -15882,7 +15912,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>378</v>
       </c>
@@ -15917,7 +15947,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>379</v>
       </c>
@@ -15949,7 +15979,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>380</v>
       </c>
@@ -15984,7 +16014,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>381</v>
       </c>
@@ -16019,7 +16049,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>382</v>
       </c>
@@ -16054,7 +16084,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>383</v>
       </c>
@@ -16089,7 +16119,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>384</v>
       </c>
@@ -16124,7 +16154,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>385</v>
       </c>
@@ -16159,7 +16189,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>386</v>
       </c>
@@ -16191,7 +16221,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>387</v>
       </c>
@@ -16223,7 +16253,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>388</v>
       </c>
@@ -16255,7 +16285,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>389</v>
       </c>
@@ -16287,7 +16317,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>390</v>
       </c>
@@ -16322,7 +16352,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>391</v>
       </c>
@@ -16354,7 +16384,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>392</v>
       </c>
@@ -16386,7 +16416,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>393</v>
       </c>
@@ -16421,7 +16451,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>394</v>
       </c>
@@ -16456,7 +16486,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>395</v>
       </c>
@@ -16491,7 +16521,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>396</v>
       </c>
@@ -16526,7 +16556,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>397</v>
       </c>
@@ -16558,7 +16588,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>398</v>
       </c>
@@ -16593,7 +16623,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>399</v>
       </c>
@@ -16628,7 +16658,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>400</v>
       </c>
@@ -16663,7 +16693,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>401</v>
       </c>
@@ -16695,7 +16725,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>402</v>
       </c>
@@ -16727,7 +16757,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>403</v>
       </c>
@@ -16762,7 +16792,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>404</v>
       </c>
@@ -16794,7 +16824,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>405</v>
       </c>
@@ -16829,7 +16859,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>406</v>
       </c>
@@ -16864,7 +16894,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>407</v>
       </c>
@@ -16896,7 +16926,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>408</v>
       </c>
@@ -16928,7 +16958,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>409</v>
       </c>
@@ -16960,7 +16990,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>410</v>
       </c>
@@ -16995,7 +17025,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>411</v>
       </c>
@@ -17027,7 +17057,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>412</v>
       </c>
@@ -17059,7 +17089,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>413</v>
       </c>
@@ -17094,7 +17124,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>414</v>
       </c>
@@ -17126,7 +17156,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>415</v>
       </c>
@@ -17161,7 +17191,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>416</v>
       </c>
@@ -17193,7 +17223,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>417</v>
       </c>
@@ -17228,7 +17258,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>418</v>
       </c>
@@ -17260,7 +17290,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>419</v>
       </c>
@@ -17295,7 +17325,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>420</v>
       </c>
@@ -17330,7 +17360,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>421</v>
       </c>
@@ -17365,7 +17395,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>422</v>
       </c>
@@ -17400,7 +17430,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>423</v>
       </c>
@@ -17432,7 +17462,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>424</v>
       </c>
@@ -17464,7 +17494,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>424</v>
       </c>
@@ -17499,7 +17529,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>425</v>
       </c>
@@ -17531,7 +17561,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -17566,7 +17596,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>427</v>
       </c>
@@ -17601,7 +17631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>428</v>
       </c>
@@ -17636,7 +17666,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>429</v>
       </c>
@@ -17671,7 +17701,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>429</v>
       </c>
@@ -17706,7 +17736,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>430</v>
       </c>
@@ -17738,7 +17768,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>431</v>
       </c>
@@ -17770,7 +17800,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>432</v>
       </c>
@@ -17805,7 +17835,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>433</v>
       </c>
@@ -17840,7 +17870,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>434</v>
       </c>
@@ -17875,7 +17905,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>434</v>
       </c>
@@ -17907,7 +17937,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>435</v>
       </c>
@@ -17939,7 +17969,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>436</v>
       </c>
@@ -17971,7 +18001,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>437</v>
       </c>
@@ -18003,7 +18033,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>437</v>
       </c>
@@ -18038,7 +18068,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>437</v>
       </c>
@@ -18070,7 +18100,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>437</v>
       </c>
@@ -18105,7 +18135,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>437</v>
       </c>
@@ -18137,7 +18167,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>438</v>
       </c>
@@ -18172,7 +18202,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>439</v>
       </c>
@@ -18204,7 +18234,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>439</v>
       </c>
@@ -18239,7 +18269,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>439</v>
       </c>
@@ -18274,7 +18304,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>440</v>
       </c>
@@ -18306,7 +18336,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>441</v>
       </c>
@@ -18338,7 +18368,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>441</v>
       </c>
@@ -18370,7 +18400,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>442</v>
       </c>
@@ -18405,7 +18435,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>442</v>
       </c>
@@ -18440,7 +18470,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>443</v>
       </c>
@@ -18472,7 +18502,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>443</v>
       </c>
@@ -18507,7 +18537,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>443</v>
       </c>
@@ -18542,7 +18572,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>443</v>
       </c>
@@ -18577,7 +18607,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>443</v>
       </c>
@@ -18609,7 +18639,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>444</v>
       </c>
@@ -18641,7 +18671,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>445</v>
       </c>
@@ -18673,7 +18703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>446</v>
       </c>
@@ -18705,7 +18735,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>446</v>
       </c>
@@ -18740,7 +18770,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>446</v>
       </c>
@@ -18772,7 +18802,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>447</v>
       </c>
@@ -18804,7 +18834,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>448</v>
       </c>
@@ -18839,7 +18869,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>449</v>
       </c>
@@ -18874,7 +18904,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>450</v>
       </c>
@@ -18906,7 +18936,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>451</v>
       </c>
@@ -18938,7 +18968,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>452</v>
       </c>
@@ -18970,7 +19000,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>453</v>
       </c>
@@ -19005,7 +19035,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>454</v>
       </c>
@@ -19040,7 +19070,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>455</v>
       </c>
@@ -19072,7 +19102,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>456</v>
       </c>
@@ -19107,7 +19137,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>457</v>
       </c>
@@ -19142,7 +19172,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>458</v>
       </c>
@@ -19177,7 +19207,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>459</v>
       </c>
@@ -19212,7 +19242,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>459</v>
       </c>
@@ -19244,7 +19274,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>460</v>
       </c>
@@ -19276,7 +19306,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>461</v>
       </c>
@@ -19308,7 +19338,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>462</v>
       </c>
@@ -19343,7 +19373,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>462</v>
       </c>
@@ -19375,7 +19405,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>463</v>
       </c>
@@ -19410,7 +19440,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>464</v>
       </c>
@@ -19442,7 +19472,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>465</v>
       </c>
@@ -19477,7 +19507,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>466</v>
       </c>
@@ -19512,7 +19542,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>467</v>
       </c>
@@ -19547,7 +19577,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>468</v>
       </c>
@@ -19579,7 +19609,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>469</v>
       </c>
@@ -19614,7 +19644,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>469</v>
       </c>
@@ -19649,7 +19679,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>470</v>
       </c>
@@ -19684,7 +19714,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>471</v>
       </c>
@@ -19716,7 +19746,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>472</v>
       </c>
@@ -19751,7 +19781,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>473</v>
       </c>
@@ -19786,7 +19816,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>474</v>
       </c>
@@ -19821,7 +19851,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>474</v>
       </c>
@@ -19853,7 +19883,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>474</v>
       </c>
@@ -19885,7 +19915,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>474</v>
       </c>
@@ -19917,7 +19947,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>474</v>
       </c>
@@ -19949,7 +19979,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>474</v>
       </c>
@@ -19984,7 +20014,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>475</v>
       </c>
@@ -20016,7 +20046,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>475</v>
       </c>
@@ -20051,7 +20081,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>475</v>
       </c>
@@ -20083,7 +20113,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>476</v>
       </c>
@@ -20115,7 +20145,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>477</v>
       </c>
@@ -20147,7 +20177,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>478</v>
       </c>
@@ -20182,7 +20212,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>479</v>
       </c>
@@ -20217,7 +20247,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>480</v>
       </c>
@@ -20252,7 +20282,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>481</v>
       </c>
@@ -20287,7 +20317,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>482</v>
       </c>
@@ -20319,7 +20349,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>483</v>
       </c>
@@ -20354,7 +20384,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>483</v>
       </c>
@@ -20389,7 +20419,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>484</v>
       </c>
@@ -20421,7 +20451,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>485</v>
       </c>
@@ -20456,7 +20486,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>486</v>
       </c>
@@ -20491,7 +20521,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>486</v>
       </c>
@@ -20526,7 +20556,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>487</v>
       </c>
@@ -20558,7 +20588,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>488</v>
       </c>
@@ -20593,7 +20623,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>489</v>
       </c>
@@ -20628,7 +20658,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>490</v>
       </c>
@@ -20663,7 +20693,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>490</v>
       </c>
@@ -20695,7 +20725,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>490</v>
       </c>
@@ -20727,7 +20757,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>490</v>
       </c>
@@ -20759,7 +20789,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>491</v>
       </c>
@@ -20791,7 +20821,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>492</v>
       </c>
@@ -20826,7 +20856,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>493</v>
       </c>
@@ -20858,7 +20888,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>494</v>
       </c>
@@ -20893,7 +20923,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>494</v>
       </c>
@@ -20925,7 +20955,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>495</v>
       </c>
@@ -20957,7 +20987,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>496</v>
       </c>
@@ -20989,7 +21019,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>497</v>
       </c>
@@ -21021,7 +21051,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>498</v>
       </c>
@@ -21056,7 +21086,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>499</v>
       </c>
@@ -21091,7 +21121,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>500</v>
       </c>
@@ -21123,7 +21153,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>501</v>
       </c>
@@ -21155,7 +21185,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>502</v>
       </c>
@@ -21190,7 +21220,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>503</v>
       </c>
@@ -21222,7 +21252,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>504</v>
       </c>
@@ -21254,7 +21284,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>505</v>
       </c>
@@ -21286,7 +21316,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>506</v>
       </c>
@@ -21321,7 +21351,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>507</v>
       </c>
@@ -21356,7 +21386,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>508</v>
       </c>
@@ -21391,7 +21421,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>508</v>
       </c>
@@ -21426,7 +21456,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>509</v>
       </c>
@@ -21461,7 +21491,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>510</v>
       </c>
@@ -21493,7 +21523,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>511</v>
       </c>
@@ -21525,7 +21555,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>512</v>
       </c>
@@ -21557,7 +21587,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>513</v>
       </c>
@@ -21592,7 +21622,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>514</v>
       </c>
@@ -21624,7 +21654,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>515</v>
       </c>
@@ -21659,7 +21689,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>516</v>
       </c>
@@ -21694,7 +21724,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>517</v>
       </c>
@@ -21729,7 +21759,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>518</v>
       </c>
@@ -21761,7 +21791,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>519</v>
       </c>
@@ -21796,7 +21826,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>520</v>
       </c>
@@ -21831,7 +21861,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>521</v>
       </c>
@@ -21863,7 +21893,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>522</v>
       </c>
@@ -21898,7 +21928,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>523</v>
       </c>
@@ -21933,7 +21963,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>524</v>
       </c>
@@ -21968,7 +21998,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>525</v>
       </c>
@@ -22000,7 +22030,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>526</v>
       </c>
@@ -22035,7 +22065,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>527</v>
       </c>
@@ -22067,7 +22097,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>527</v>
       </c>
@@ -22102,7 +22132,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>528</v>
       </c>
@@ -22137,7 +22167,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>528</v>
       </c>
@@ -22169,7 +22199,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>529</v>
       </c>
@@ -22201,7 +22231,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>530</v>
       </c>
@@ -22236,7 +22266,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>531</v>
       </c>
@@ -22271,7 +22301,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>532</v>
       </c>
@@ -22306,7 +22336,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>533</v>
       </c>
@@ -22341,7 +22371,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>534</v>
       </c>
@@ -22373,7 +22403,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>535</v>
       </c>
@@ -22405,7 +22435,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>536</v>
       </c>
@@ -22437,7 +22467,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>537</v>
       </c>
@@ -22472,7 +22502,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>537</v>
       </c>
@@ -22507,7 +22537,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>537</v>
       </c>
@@ -22542,7 +22572,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>538</v>
       </c>
@@ -22577,7 +22607,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>539</v>
       </c>
@@ -22609,7 +22639,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>540</v>
       </c>
@@ -22644,7 +22674,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>541</v>
       </c>
@@ -22679,7 +22709,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>542</v>
       </c>
@@ -22714,7 +22744,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>543</v>
       </c>
@@ -22749,7 +22779,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>544</v>
       </c>
@@ -22784,7 +22814,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>545</v>
       </c>
@@ -22816,7 +22846,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>546</v>
       </c>
@@ -22851,7 +22881,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>547</v>
       </c>
@@ -22883,7 +22913,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>548</v>
       </c>
@@ -22915,7 +22945,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>549</v>
       </c>
@@ -22950,7 +22980,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>550</v>
       </c>
@@ -22985,7 +23015,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>551</v>
       </c>
@@ -23020,7 +23050,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>552</v>
       </c>
@@ -23052,7 +23082,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>553</v>
       </c>
@@ -23084,7 +23114,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>554</v>
       </c>
@@ -23119,7 +23149,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>555</v>
       </c>
@@ -23151,7 +23181,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>556</v>
       </c>
@@ -23183,7 +23213,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>557</v>
       </c>
@@ -23218,7 +23248,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>558</v>
       </c>
@@ -23250,7 +23280,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>559</v>
       </c>
@@ -23282,7 +23312,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>560</v>
       </c>
@@ -23314,7 +23344,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>561</v>
       </c>
@@ -23346,7 +23376,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>562</v>
       </c>
